--- a/設計/ガントチャート.xlsx
+++ b/設計/ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-touya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-touya\Documents\HighandLow\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,29 +417,29 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -808,7 +808,7 @@
   <dimension ref="B1:AH15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -822,11 +822,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
@@ -835,9 +835,9 @@
       </c>
     </row>
     <row r="2" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
@@ -849,68 +849,68 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="22">
         <f>G5</f>
         <v>45538</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="16">
+      <c r="N4" s="22">
         <f t="shared" ref="N4" si="0">N5</f>
         <v>45545</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
       <c r="T4" s="24"/>
-      <c r="U4" s="16">
+      <c r="U4" s="22">
         <f t="shared" ref="U4" si="1">U5</f>
         <v>45552</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
       <c r="AA4" s="24"/>
-      <c r="AB4" s="16">
+      <c r="AB4" s="22">
         <f t="shared" ref="AB4" si="2">AB5</f>
         <v>45559</v>
       </c>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="6">
         <f>F1</f>
         <v>45538</v>
@@ -1069,14 +1069,14 @@
         <v>27</v>
       </c>
       <c r="D7" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="10">
         <v>45538</v>
       </c>
       <c r="F7" s="10">
         <f>IF(E7="","",WORKDAY(E7,D7,祝日!$B$1:$B$16))</f>
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1112,17 +1112,17 @@
         <v>25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="10">
         <v>45538</v>
       </c>
       <c r="F8" s="10">
         <f>IF(E8="","",WORKDAY(E8,D8,祝日!$B$1:$B$16))</f>
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1161,14 +1161,14 @@
         <v>28</v>
       </c>
       <c r="D9" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="10">
         <v>45538</v>
       </c>
       <c r="F9" s="10">
         <f>IF(E9="","",WORKDAY(E9,D9,祝日!$B$1:$B$16))</f>
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1453,16 +1453,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G7:AH32">

--- a/設計/ガントチャート.xlsx
+++ b/設計/ガントチャート.xlsx
@@ -16,7 +16,7 @@
     <sheet name="祝日" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$AH$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$AI$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>プロジェクトタイトル</t>
     <phoneticPr fontId="1"/>
@@ -131,10 +131,6 @@
     <t>勤労感謝の日</t>
   </si>
   <si>
-    <t>HighandLow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="4">
       <t>ヨウケンテイギ</t>
@@ -197,6 +193,99 @@
     <t>発表</t>
     <rPh sb="0" eb="2">
       <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大項目</t>
+    <rPh sb="0" eb="3">
+      <t>ダイコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中項目</t>
+    <rPh sb="0" eb="3">
+      <t>チュウコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャッフル機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10渡す機能</t>
+    <rPh sb="2" eb="3">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード選択</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宣言</t>
+    <rPh sb="0" eb="2">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードを表に</t>
+    <rPh sb="4" eb="5">
+      <t>オモテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連勝を追加</t>
+    <rPh sb="0" eb="2">
+      <t>レンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローなら山札を追加</t>
+    <rPh sb="5" eb="7">
+      <t>ヤマフダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -267,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -362,13 +451,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,22 +587,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,6 +604,66 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,234 +1026,241 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AH15"/>
+  <dimension ref="B1:AI24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="34" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="35" width="3.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>45538</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="5" t="s">
+    <row r="2" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>44817</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="22">
-        <f>G5</f>
+      <c r="H4" s="19">
+        <f>H5</f>
         <v>45538</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="22">
-        <f t="shared" ref="N4" si="0">N5</f>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="19">
+        <f t="shared" ref="O4" si="0">O5</f>
         <v>45545</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="22">
-        <f t="shared" ref="U4" si="1">U5</f>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="19">
+        <f t="shared" ref="V4" si="1">V5</f>
         <v>45552</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="22">
-        <f t="shared" ref="AB4" si="2">AB5</f>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="19">
+        <f t="shared" ref="AC4" si="2">AC5</f>
         <v>45559</v>
       </c>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="6">
-        <f>F1</f>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="6">
+        <f>G1</f>
         <v>45538</v>
       </c>
-      <c r="H5" s="6">
-        <f>G5+1</f>
+      <c r="I5" s="6">
+        <f>H5+1</f>
         <v>45539</v>
       </c>
-      <c r="I5" s="6">
-        <f t="shared" ref="I5:AH5" si="3">H5+1</f>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:AI5" si="3">I5+1</f>
         <v>45540</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <f t="shared" si="3"/>
         <v>45541</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <f t="shared" si="3"/>
         <v>45542</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <f t="shared" si="3"/>
         <v>45543</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <f t="shared" si="3"/>
         <v>45544</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <f t="shared" si="3"/>
         <v>45545</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <f t="shared" si="3"/>
         <v>45546</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <f t="shared" si="3"/>
         <v>45547</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <f t="shared" si="3"/>
         <v>45548</v>
       </c>
-      <c r="R5" s="6">
+      <c r="S5" s="6">
         <f t="shared" si="3"/>
         <v>45549</v>
       </c>
-      <c r="S5" s="6">
+      <c r="T5" s="6">
         <f t="shared" si="3"/>
         <v>45550</v>
       </c>
-      <c r="T5" s="6">
+      <c r="U5" s="6">
         <f t="shared" si="3"/>
         <v>45551</v>
       </c>
-      <c r="U5" s="6">
+      <c r="V5" s="6">
         <f t="shared" si="3"/>
         <v>45552</v>
       </c>
-      <c r="V5" s="6">
+      <c r="W5" s="6">
         <f t="shared" si="3"/>
         <v>45553</v>
       </c>
-      <c r="W5" s="6">
+      <c r="X5" s="6">
         <f t="shared" si="3"/>
         <v>45554</v>
       </c>
-      <c r="X5" s="6">
+      <c r="Y5" s="6">
         <f t="shared" si="3"/>
         <v>45555</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Z5" s="6">
         <f t="shared" si="3"/>
         <v>45556</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="6">
         <f t="shared" si="3"/>
         <v>45557</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AB5" s="6">
         <f t="shared" si="3"/>
         <v>45558</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AC5" s="6">
         <f t="shared" si="3"/>
         <v>45559</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AD5" s="6">
         <f t="shared" si="3"/>
         <v>45560</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <f t="shared" si="3"/>
         <v>45561</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AF5" s="6">
         <f t="shared" si="3"/>
         <v>45562</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AG5" s="6">
         <f t="shared" si="3"/>
         <v>45563</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AH5" s="6">
         <f t="shared" si="3"/>
         <v>45564</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AI5" s="6">
         <f t="shared" si="3"/>
         <v>45565</v>
       </c>
     </row>
-    <row r="6" spans="2:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1060,25 +1288,26 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
-    </row>
-    <row r="7" spans="2:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI6" s="6"/>
+    </row>
+    <row r="7" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="10">
         <v>45538</v>
       </c>
-      <c r="F7" s="10">
-        <f>IF(E7="","",WORKDAY(E7,D7,祝日!$B$1:$B$16))</f>
+      <c r="G7" s="10">
+        <f>IF(F7="","",WORKDAY(F7,E7,祝日!$B$1:$B$16))</f>
         <v>45540</v>
       </c>
-      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1106,25 +1335,26 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-    </row>
-    <row r="8" spans="2:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI7" s="4"/>
+    </row>
+    <row r="8" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="11">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="10">
         <v>45538</v>
       </c>
-      <c r="F8" s="10">
-        <f>IF(E8="","",WORKDAY(E8,D8,祝日!$B$1:$B$16))</f>
+      <c r="G8" s="10">
+        <f>IF(F8="","",WORKDAY(F8,E8,祝日!$B$1:$B$16))</f>
         <v>45540</v>
       </c>
-      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1152,25 +1382,26 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-    </row>
-    <row r="9" spans="2:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI8" s="4"/>
+    </row>
+    <row r="9" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="11">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="10">
         <v>45538</v>
       </c>
-      <c r="F9" s="10">
-        <f>IF(E9="","",WORKDAY(E9,D9,祝日!$B$1:$B$16))</f>
+      <c r="G9" s="10">
+        <f>IF(F9="","",WORKDAY(F9,E9,祝日!$B$1:$B$16))</f>
         <v>45540</v>
       </c>
-      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1198,25 +1429,26 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
-    </row>
-    <row r="10" spans="2:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11">
-        <v>5</v>
-      </c>
-      <c r="E10" s="10">
-        <v>45538</v>
-      </c>
-      <c r="F10" s="10">
-        <f>IF(E10="","",WORKDAY(E10,D10,祝日!$B$1:$B$16))</f>
-        <v>45545</v>
-      </c>
-      <c r="G10" s="4"/>
+      <c r="AI9" s="4"/>
+    </row>
+    <row r="10" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="40">
+        <v>1</v>
+      </c>
+      <c r="F10" s="41">
+        <v>45541</v>
+      </c>
+      <c r="G10" s="10">
+        <f>IF(F10="","",WORKDAY(F10,E10,祝日!$B$1:$B$16))</f>
+        <v>45544</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1244,25 +1476,24 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
-    </row>
-    <row r="11" spans="2:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>45546</v>
-      </c>
-      <c r="F11" s="10">
-        <f>IF(E11="","",WORKDAY(E11,D11,祝日!$B$1:$B$16))</f>
-        <v>45547</v>
-      </c>
-      <c r="G11" s="4"/>
+      <c r="AI10" s="4"/>
+    </row>
+    <row r="11" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="40">
+        <v>2</v>
+      </c>
+      <c r="F11" s="41">
+        <v>45541</v>
+      </c>
+      <c r="G11" s="10">
+        <f>IF(F11="","",WORKDAY(F11,E11,祝日!$B$1:$B$16))</f>
+        <v>45545</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1290,26 +1521,25 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
-    </row>
-    <row r="12" spans="2:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>45548</v>
-      </c>
-      <c r="F12" s="10">
-        <f>IF(E12="","",WORKDAY(E12,D12,祝日!$B$1:$B$16))</f>
-        <v>45548</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="AI11" s="4"/>
+    </row>
+    <row r="12" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29"/>
+      <c r="C12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40">
+        <v>2</v>
+      </c>
+      <c r="F12" s="41">
+        <v>45541</v>
+      </c>
+      <c r="G12" s="10">
+        <f>IF(F12="","",WORKDAY(F12,E12,祝日!$B$1:$B$16))</f>
+        <v>45545</v>
+      </c>
+      <c r="H12" s="35"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1336,18 +1566,25 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="str">
-        <f>IF(E13="","",WORKDAY(E13,D13,祝日!$B$1:$B$16))</f>
-        <v/>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="AI12" s="4"/>
+    </row>
+    <row r="13" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
+      <c r="C13" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40">
+        <v>2</v>
+      </c>
+      <c r="F13" s="41">
+        <v>45541</v>
+      </c>
+      <c r="G13" s="10">
+        <f>IF(F13="","",WORKDAY(F13,E13,祝日!$B$1:$B$16))</f>
+        <v>45545</v>
+      </c>
+      <c r="H13" s="35"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1374,18 +1611,25 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="str">
-        <f>IF(E14="","",WORKDAY(E14,D14,祝日!$B$1:$B$16))</f>
-        <v/>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="AI13" s="4"/>
+    </row>
+    <row r="14" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
+      <c r="C14" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40">
+        <v>2</v>
+      </c>
+      <c r="F14" s="41">
+        <v>45541</v>
+      </c>
+      <c r="G14" s="10">
+        <f>IF(F14="","",WORKDAY(F14,E14,祝日!$B$1:$B$16))</f>
+        <v>45545</v>
+      </c>
+      <c r="H14" s="35"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1412,18 +1656,25 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="str">
-        <f>IF(E15="","",WORKDAY(E15,D15,祝日!$B$1:$B$16))</f>
-        <v/>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="AI14" s="4"/>
+    </row>
+    <row r="15" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29"/>
+      <c r="C15" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40">
+        <v>2</v>
+      </c>
+      <c r="F15" s="41">
+        <v>45541</v>
+      </c>
+      <c r="G15" s="10">
+        <f>IF(F15="","",WORKDAY(F15,E15,祝日!$B$1:$B$16))</f>
+        <v>45545</v>
+      </c>
+      <c r="H15" s="35"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1450,36 +1701,429 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+    </row>
+    <row r="16" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
+      <c r="C16" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40">
+        <v>2</v>
+      </c>
+      <c r="F16" s="41">
+        <v>45541</v>
+      </c>
+      <c r="G16" s="10">
+        <f>IF(F16="","",WORKDAY(F16,E16,祝日!$B$1:$B$16))</f>
+        <v>45545</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+    </row>
+    <row r="17" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
+      <c r="C17" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40">
+        <v>2</v>
+      </c>
+      <c r="F17" s="41">
+        <v>45544</v>
+      </c>
+      <c r="G17" s="10">
+        <f>IF(F17="","",WORKDAY(F17,E17,祝日!$B$1:$B$16))</f>
+        <v>45546</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+    </row>
+    <row r="18" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29"/>
+      <c r="C18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="40">
+        <v>2</v>
+      </c>
+      <c r="F18" s="41">
+        <v>45544</v>
+      </c>
+      <c r="G18" s="10">
+        <f>IF(F18="","",WORKDAY(F18,E18,祝日!$B$1:$B$16))</f>
+        <v>45546</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+    </row>
+    <row r="19" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="32"/>
+      <c r="C19" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="40">
+        <v>2</v>
+      </c>
+      <c r="F19" s="41">
+        <v>45544</v>
+      </c>
+      <c r="G19" s="10">
+        <f>IF(F19="","",WORKDAY(F19,E19,祝日!$B$1:$B$16))</f>
+        <v>45546</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+    </row>
+    <row r="20" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>45547</v>
+      </c>
+      <c r="G20" s="10">
+        <f>IF(F20="","",WORKDAY(F20,E20,祝日!$B$1:$B$16))</f>
+        <v>45547</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+    </row>
+    <row r="21" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>45548</v>
+      </c>
+      <c r="G21" s="10">
+        <f>IF(F21="","",WORKDAY(F21,E21,祝日!$B$1:$B$16))</f>
+        <v>45548</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="str">
+        <f>IF(F22="","",WORKDAY(F22,E22,祝日!$B$1:$B$16))</f>
+        <v/>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="str">
+        <f>IF(F23="","",WORKDAY(F23,E23,祝日!$B$1:$B$16))</f>
+        <v/>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="str">
+        <f>IF(F24="","",WORKDAY(F24,E24,祝日!$B$1:$B$16))</f>
+        <v/>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G7:AH32">
+  <conditionalFormatting sqref="H7:AI41">
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND($E7&lt;=G$5,$F7&gt;=G$5,$F7&lt;&gt;"")</formula>
+      <formula>AND($F7&lt;=H$5,$G7&gt;=H$5,$G7&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:AH5">
+  <conditionalFormatting sqref="H5:AI5">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>WEEKDAY(G5)=1</formula>
+      <formula>WEEKDAY(H5)=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>WEEKDAY(G5)=7</formula>
+      <formula>WEEKDAY(H5)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="完了日は、工数と開始日を入力すると自動的に計算されます。" sqref="F4:F5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="完了日は、工数と開始日を入力すると自動的に計算されます。" sqref="G4:G5"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1488,7 +2132,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{53670ED3-A193-4C9C-87C2-5E0F0BC488E6}">
-            <xm:f>COUNTIF(祝日!$B$1:$B$16,G5) &gt;=1</xm:f>
+            <xm:f>COUNTIF(祝日!$B$1:$B$16,H5) &gt;=1</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -1497,7 +2141,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G5:AH5</xm:sqref>
+          <xm:sqref>H5:AI5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/設計/ガントチャート.xlsx
+++ b/設計/ガントチャート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>プロジェクトタイトル</t>
     <phoneticPr fontId="1"/>
@@ -286,6 +286,13 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>峠</t>
+    <rPh sb="0" eb="1">
+      <t>トウゲ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -356,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -521,24 +528,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,12 +586,66 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -604,66 +654,6 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,8 +1018,8 @@
   </sheetPr>
   <dimension ref="B1:AI24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1043,12 +1033,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1057,10 +1047,10 @@
       </c>
     </row>
     <row r="2" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1073,70 +1063,70 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="37">
         <f>H5</f>
         <v>45538</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="19">
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="37">
         <f t="shared" ref="O4" si="0">O5</f>
         <v>45545</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="19">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="37">
         <f t="shared" ref="V4" si="1">V5</f>
         <v>45552</v>
       </c>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="19">
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="37">
         <f t="shared" ref="AC4" si="2">AC5</f>
         <v>45559</v>
       </c>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
     </row>
     <row r="5" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="6">
         <f>G1</f>
         <v>45538</v>
@@ -1432,17 +1422,19 @@
       <c r="AI9" s="4"/>
     </row>
     <row r="10" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="40">
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="26">
         <v>45541</v>
       </c>
       <c r="G10" s="10">
@@ -1479,15 +1471,17 @@
       <c r="AI10" s="4"/>
     </row>
     <row r="11" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="40">
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="25">
         <v>2</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="26">
         <v>45541</v>
       </c>
       <c r="G11" s="10">
@@ -1525,21 +1519,23 @@
     </row>
     <row r="12" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="29"/>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40">
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="25">
         <v>2</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="26">
         <v>45541</v>
       </c>
       <c r="G12" s="10">
         <f>IF(F12="","",WORKDAY(F12,E12,祝日!$B$1:$B$16))</f>
         <v>45545</v>
       </c>
-      <c r="H12" s="35"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1570,21 +1566,23 @@
     </row>
     <row r="13" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="29"/>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40">
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="25">
         <v>2</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="26">
         <v>45541</v>
       </c>
       <c r="G13" s="10">
         <f>IF(F13="","",WORKDAY(F13,E13,祝日!$B$1:$B$16))</f>
         <v>45545</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1615,21 +1613,23 @@
     </row>
     <row r="14" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="29"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40">
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="25">
         <v>2</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="26">
         <v>45541</v>
       </c>
       <c r="G14" s="10">
         <f>IF(F14="","",WORKDAY(F14,E14,祝日!$B$1:$B$16))</f>
         <v>45545</v>
       </c>
-      <c r="H14" s="35"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1660,21 +1660,23 @@
     </row>
     <row r="15" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="29"/>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40">
+      <c r="D15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="25">
         <v>2</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="26">
         <v>45541</v>
       </c>
       <c r="G15" s="10">
         <f>IF(F15="","",WORKDAY(F15,E15,祝日!$B$1:$B$16))</f>
         <v>45545</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1705,21 +1707,23 @@
     </row>
     <row r="16" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="29"/>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40">
+      <c r="D16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="25">
         <v>2</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="26">
         <v>45541</v>
       </c>
       <c r="G16" s="10">
         <f>IF(F16="","",WORKDAY(F16,E16,祝日!$B$1:$B$16))</f>
         <v>45545</v>
       </c>
-      <c r="H16" s="35"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1750,21 +1754,23 @@
     </row>
     <row r="17" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="29"/>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40">
+      <c r="D17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="25">
         <v>2</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="26">
         <v>45544</v>
       </c>
       <c r="G17" s="10">
         <f>IF(F17="","",WORKDAY(F17,E17,祝日!$B$1:$B$16))</f>
         <v>45546</v>
       </c>
-      <c r="H17" s="35"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1795,14 +1801,16 @@
     </row>
     <row r="18" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="29"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="40">
+      <c r="D18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="25">
         <v>2</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="26">
         <v>45544</v>
       </c>
       <c r="G18" s="10">
@@ -1839,15 +1847,17 @@
       <c r="AI18" s="4"/>
     </row>
     <row r="19" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="40">
+      <c r="D19" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="25">
         <v>2</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="26">
         <v>45544</v>
       </c>
       <c r="G19" s="10">
@@ -1887,8 +1897,8 @@
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="11">
@@ -1934,7 +1944,7 @@
       <c r="B21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="9" t="s">
         <v>28</v>
       </c>
@@ -2096,17 +2106,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
     <mergeCell ref="B10:B19"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H7:AI41">
